--- a/Development Log.xlsx
+++ b/Development Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\Coding\Mobile Revision Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A1428-104F-418F-B32D-35E8F42F3F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414CCE14-E356-4B52-AE94-13B33BBECFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="690" windowWidth="28800" windowHeight="15435" xr2:uid="{2E92D7A6-0332-4350-B77A-A9A5D0536340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2E92D7A6-0332-4350-B77A-A9A5D0536340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Original Program to display text</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Edit binding address firewall and privileges for user</t>
+  </si>
+  <si>
+    <t>Dropdown for deleting questions working</t>
+  </si>
+  <si>
+    <t>Unable to delete query from database</t>
   </si>
 </sst>
 </file>
@@ -322,6 +328,50 @@
         <a:xfrm>
           <a:off x="13792200" y="2752725"/>
           <a:ext cx="7247619" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3305175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4608989</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF73542C-9127-ECAA-7B67-9C6E058AF6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="3181350"/>
+          <a:ext cx="8885714" cy="2219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465F9F8-E78B-4C78-8F04-987F0A4714DE}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +862,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Development Log.xlsx
+++ b/Development Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\Coding\Mobile Revision Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\johnmason\jmshome\students\16pratte\Desktop\NEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414CCE14-E356-4B52-AE94-13B33BBECFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2E92D7A6-0332-4350-B77A-A9A5D0536340}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Original Program to display text</t>
   </si>
@@ -147,12 +135,15 @@
   </si>
   <si>
     <t>Unable to delete query from database</t>
+  </si>
+  <si>
+    <t>Dropdown for deleting questions, SQL queries complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -679,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465F9F8-E78B-4C78-8F04-987F0A4714DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +855,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44846</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44846</v>
